--- a/Documents/Таблицы IDS.xlsx
+++ b/Documents/Таблицы IDS.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69BFC56-44EB-4310-87C0-4F74603765F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -116,13 +125,19 @@
   </si>
   <si>
     <t>ArrivalCars</t>
+  </si>
+  <si>
+    <t>Номер натурной ведомости(под каждую станцию примыкания)</t>
+  </si>
+  <si>
+    <t>position_arrival</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,16 +155,48 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -209,11 +256,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -225,9 +283,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -318,6 +384,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -353,6 +436,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -528,11 +628,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,17 +640,19 @@
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -560,8 +662,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -571,7 +673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -582,7 +684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -593,7 +695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -604,7 +706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -615,7 +717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -626,7 +728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
@@ -637,7 +739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -648,7 +750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
@@ -659,7 +761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
@@ -670,7 +772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
@@ -680,8 +782,11 @@
       <c r="D13" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -692,7 +797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
@@ -703,7 +808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
@@ -714,7 +819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
@@ -725,7 +830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
@@ -736,7 +841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
@@ -747,7 +852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
@@ -758,14 +863,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,8 +881,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -787,8 +893,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -798,8 +904,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -809,45 +915,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+      <c r="D30" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>2</v>
@@ -855,10 +961,10 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>2</v>
@@ -866,10 +972,10 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>2</v>
@@ -877,10 +983,10 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>2</v>
@@ -888,12 +994,23 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/Documents/Таблицы IDS.xlsx
+++ b/Documents/Таблицы IDS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69BFC56-44EB-4310-87C0-4F74603765F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A6456E-8F80-402C-908C-C8D3D5336439}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -112,9 +112,6 @@
     <t>position</t>
   </si>
   <si>
-    <t>id_input_supply</t>
-  </si>
-  <si>
     <t>arrival</t>
   </si>
   <si>
@@ -131,13 +128,58 @@
   </si>
   <si>
     <t>position_arrival</t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>Код прибытия Metrans</t>
+  </si>
+  <si>
+    <t>Код состава Metrans</t>
+  </si>
+  <si>
+    <t>поезд</t>
+  </si>
+  <si>
+    <t>индекс</t>
+  </si>
+  <si>
+    <t>дата операции (обновляется с каждой ТСП)</t>
+  </si>
+  <si>
+    <t>стнция УЗ</t>
+  </si>
+  <si>
+    <t>количество вагонов прибывших ?</t>
+  </si>
+  <si>
+    <t>статус 0 по умолчанию</t>
+  </si>
+  <si>
+    <t>кто создал</t>
+  </si>
+  <si>
+    <t>Код состава ArrivalSostav</t>
+  </si>
+  <si>
+    <t>номер вагона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">позиция </t>
+  </si>
+  <si>
+    <t>код грузополучателя</t>
+  </si>
+  <si>
+    <t>consignee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +207,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -192,7 +226,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -266,14 +301,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -283,15 +319,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
@@ -629,395 +667,452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="C1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="11">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="7" t="s">
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" s="11">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="F33" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="F34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="F36" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Таблицы IDS.xlsx
+++ b/Documents/Таблицы IDS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A6456E-8F80-402C-908C-C8D3D5336439}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562D7424-2421-4A42-952A-0826127995F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -173,13 +173,40 @@
   </si>
   <si>
     <t>consignee</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>xml</t>
+  </si>
+  <si>
+    <t>revision</t>
+  </si>
+  <si>
+    <t>code_from</t>
+  </si>
+  <si>
+    <t>code_on</t>
+  </si>
+  <si>
+    <t>nvarchar(4)</t>
+  </si>
+  <si>
+    <t>xml_doc</t>
+  </si>
+  <si>
+    <t>UZ_DOC</t>
+  </si>
+  <si>
+    <t>номер документа уз</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,8 +238,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,8 +274,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -291,46 +346,48 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -667,16 +724,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:G37"/>
+  <dimension ref="C1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="2" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -684,17 +741,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="11">
+      <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -703,12 +760,12 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -717,12 +774,12 @@
       <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -731,12 +788,12 @@
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -745,12 +802,12 @@
       <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -759,12 +816,12 @@
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -773,7 +830,7 @@
       <c r="F7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -787,6 +844,7 @@
       <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D9" s="1" t="s">
@@ -798,18 +856,19 @@
       <c r="F9" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>41</v>
       </c>
     </row>
@@ -823,6 +882,7 @@
       <c r="F11" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
@@ -834,8 +894,9 @@
       <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="3:7" ht="30" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
@@ -845,12 +906,12 @@
       <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -859,12 +920,12 @@
       <c r="F14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -873,7 +934,7 @@
       <c r="F15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -887,9 +948,10 @@
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -898,12 +960,12 @@
       <c r="F17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -912,7 +974,7 @@
       <c r="F18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -923,9 +985,10 @@
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="F19" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
@@ -934,19 +997,20 @@
       <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="F20" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="7"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -955,12 +1019,13 @@
       <c r="F25" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="11">
+      <c r="C26" s="6">
         <v>1</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -969,12 +1034,12 @@
       <c r="F26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -983,12 +1048,12 @@
       <c r="F27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -997,7 +1062,7 @@
       <c r="F28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1011,9 +1076,10 @@
       <c r="F29" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -1022,97 +1088,224 @@
       <c r="F30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D31" s="1" t="s">
-        <v>20</v>
+      <c r="C31" s="6">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D33" s="1" t="s">
+      <c r="F33" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D34" s="8" t="s">
+      <c r="F34" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D35" s="8" t="s">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D36" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D36" s="1" t="s">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D37" s="1" t="s">
+      <c r="F37" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="F38" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D42" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C43" s="6">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D42:F42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Таблицы IDS.xlsx
+++ b/Documents/Таблицы IDS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562D7424-2421-4A42-952A-0826127995F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18584EE1-0817-4535-8D4E-DFAF9002ED39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -374,6 +374,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -383,7 +384,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,11 +741,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2" s="6">
@@ -865,7 +865,7 @@
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="8" t="s">
@@ -985,7 +985,7 @@
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G19" s="7"/>
@@ -997,17 +997,17 @@
       <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G20" s="7"/>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="D25" s="2" t="s">
@@ -1126,7 +1126,7 @@
       <c r="E33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G33" s="7"/>
@@ -1138,7 +1138,7 @@
       <c r="E34" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G34" s="7"/>
@@ -1178,7 +1178,7 @@
       <c r="E37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G37" s="7"/>
@@ -1190,7 +1190,7 @@
       <c r="E38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G38" s="7"/>
@@ -1208,11 +1208,11 @@
       <c r="G40" s="10"/>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C43" s="6">
